--- a/Electronics/DueShield_BOM.xlsx
+++ b/Electronics/DueShield_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOCull.STRYKERCORP\Dropbox\Maslow_CNC\DueShield PCB\Project Outputs for DueShield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOCull.STRYKERCORP\Documents\MaslowDue\Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4860E1-9BDA-41F8-82CD-A79B890C5EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3AFA22-E593-43B7-A6DC-F66B6A1657E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="12765" xr2:uid="{0D1909E2-E7BC-4443-9712-339F892941C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9255" xr2:uid="{0D1909E2-E7BC-4443-9712-339F892941C5}"/>
   </bookViews>
   <sheets>
     <sheet name="DueShield" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
@@ -53,21 +53,12 @@
     <t>LED_E</t>
   </si>
   <si>
-    <t>LEDSource: http://www.osram.convergy.deSource: www.luxeon.comSource: www.kingbright.com</t>
-  </si>
-  <si>
     <t>12VPOWER, USB</t>
   </si>
   <si>
     <t>LED_1206</t>
   </si>
   <si>
-    <t>.1uF</t>
-  </si>
-  <si>
-    <t>CAPACITOR, European symbol</t>
-  </si>
-  <si>
     <t>C1, C2, C3, C4</t>
   </si>
   <si>
@@ -77,12 +68,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>1.0uF</t>
-  </si>
-  <si>
-    <t>CAP-11625</t>
-  </si>
-  <si>
     <t>C5, C6</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>1.0UF-25V-+80/-20(0805)"</t>
   </si>
   <si>
-    <t>0805</t>
-  </si>
-  <si>
     <t>C7, C8, C9, C10, C11, C12, C13</t>
   </si>
   <si>
@@ -104,9 +86,6 @@
     <t>PIN HEADER</t>
   </si>
   <si>
-    <t>COMMUNICATION, COMMUNICATION1, COMMUNICATION2, PWMH, PWML</t>
-  </si>
-  <si>
     <t>1X08</t>
   </si>
   <si>
@@ -131,18 +110,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>M03LOCK</t>
-  </si>
-  <si>
-    <t>Header 3Standard 3-pin 0.1" header. Use with straight break away headers (SKU : PRT-00116), right angle break away headers (PRT-00553), swiss pins (PRT-00743), machine pins (PRT-00117), and female headers (PRT-00115). Molex polarized connector foot print use with SKU : PRT-08232 with associated crimp pins and housings.</t>
-  </si>
-  <si>
-    <t>J2, J3, J4, J5, J6, J7</t>
-  </si>
-  <si>
-    <t>1X03_LOCK</t>
-  </si>
-  <si>
     <t>PINHD-2X2</t>
   </si>
   <si>
@@ -152,12 +119,6 @@
     <t>2X02</t>
   </si>
   <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>RESISTOR, European symbol</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -167,21 +128,12 @@
     <t>R</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
     <t>R3, R4, R5, R6, R7, R8, R9, R10</t>
   </si>
   <si>
-    <t>32K EEPROM</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -207,13 +159,91 @@
   </si>
   <si>
     <t>24LC256T-I/SNCT</t>
+  </si>
+  <si>
+    <t>EEPROM, 32K, SOIC</t>
+  </si>
+  <si>
+    <t>MRA4004T3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectifier Diode </t>
+  </si>
+  <si>
+    <t>68000-408HLF</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 0.1uF 50V</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 1uF 50V</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 10nF, 50V</t>
+  </si>
+  <si>
+    <t>CC0805ZRY5V9BB104</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>C0805C100J5GACTU</t>
+  </si>
+  <si>
+    <t>CL21F105ZBFNNNE</t>
+  </si>
+  <si>
+    <t>Single Row, Pin Header</t>
+  </si>
+  <si>
+    <t>L298P013TR</t>
+  </si>
+  <si>
+    <t>RESISTOR, 270 OHM, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ESR10EZPJ271</t>
+  </si>
+  <si>
+    <t>RR1220P-102-D</t>
+  </si>
+  <si>
+    <t>RESISTOR, 1K, 0805</t>
+  </si>
+  <si>
+    <t>RR1220P-392-D</t>
+  </si>
+  <si>
+    <t>RESISTOR, 3.9K, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	B6B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Connector, JST 6-Position, 2.5mm</t>
+  </si>
+  <si>
+    <t>LTST-C230KRKT</t>
+  </si>
+  <si>
+    <t>LED, Clear/RED, 1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSW-102-07-F-D	</t>
+  </si>
+  <si>
+    <t>33DCJ-0202-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,9 +252,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -269,13 +305,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,6 +343,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="MRA4004T3G">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88B1281-49A8-4473-8CE7-6D55C4E1E327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1543050" y="2867025"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,343 +695,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD48E13-D663-4059-BCB0-FA2FEF4C8FF2}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="3">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Electronics/DueShield_BOM.xlsx
+++ b/Electronics/DueShield_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOCull.STRYKERCORP\Documents\MaslowDue\Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3AFA22-E593-43B7-A6DC-F66B6A1657E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B8C5E1-D0BD-4A1E-BE8D-21BA996B1DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9255" xr2:uid="{0D1909E2-E7BC-4443-9712-339F892941C5}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
-  <si>
-    <t>Comment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -44,15 +41,9 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>LED_E</t>
-  </si>
-  <si>
     <t>12VPOWER, USB</t>
   </si>
   <si>
@@ -65,33 +56,21 @@
     <t>C0805</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>C5, C6</t>
   </si>
   <si>
     <t>0805-CAP</t>
   </si>
   <si>
-    <t>1.0UF-25V-+80/-20(0805)"</t>
-  </si>
-  <si>
     <t>C7, C8, C9, C10, C11, C12, C13</t>
   </si>
   <si>
-    <t>PINHD-1X8</t>
-  </si>
-  <si>
     <t>PIN HEADER</t>
   </si>
   <si>
     <t>1X08</t>
   </si>
   <si>
-    <t>L298SO</t>
-  </si>
-  <si>
     <t>DUAL FULL-BRIDGE DRIVER</t>
   </si>
   <si>
@@ -110,9 +89,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>PINHD-2X2</t>
-  </si>
-  <si>
     <t>JP3, JP4</t>
   </si>
   <si>
@@ -125,9 +101,6 @@
     <t>R0805</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -140,18 +113,12 @@
     <t>SOIC8</t>
   </si>
   <si>
-    <t>JST-PH-6</t>
-  </si>
-  <si>
     <t>U$1, U$12, U$20</t>
   </si>
   <si>
     <t>JST-PHR-6-SMD</t>
   </si>
   <si>
-    <t>MRA4004</t>
-  </si>
-  <si>
     <t>U$2, U$3, U$4, U$5, U$6, U$7, U$8, U$9, U$10, U$11, U$13, U$14</t>
   </si>
   <si>
@@ -237,6 +204,9 @@
   </si>
   <si>
     <t>33DCJ-0202-A</t>
+  </si>
+  <si>
+    <t>Mfg Part Number</t>
   </si>
 </sst>
 </file>
@@ -278,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -301,32 +271,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD48E13-D663-4059-BCB0-FA2FEF4C8FF2}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
@@ -703,361 +874,315 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12</v>
-      </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Electronics/DueShield_BOM.xlsx
+++ b/Electronics/DueShield_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOCull.STRYKERCORP\Documents\MaslowDue\Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B8C5E1-D0BD-4A1E-BE8D-21BA996B1DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB87F92-47CB-4D39-9317-2230D2ECF6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9255" xr2:uid="{0D1909E2-E7BC-4443-9712-339F892941C5}"/>
   </bookViews>

--- a/Electronics/DueShield_BOM.xlsx
+++ b/Electronics/DueShield_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOCull.STRYKERCORP\Documents\MaslowDue\Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB87F92-47CB-4D39-9317-2230D2ECF6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0E5CD7-6CF4-4A48-B5AA-50257DDFD39B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9255" xr2:uid="{0D1909E2-E7BC-4443-9712-339F892941C5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -146,9 +146,6 @@
     <t>CAPACITOR, 1uF 50V</t>
   </si>
   <si>
-    <t>CAPACITOR, 10nF, 50V</t>
-  </si>
-  <si>
     <t>CC0805ZRY5V9BB104</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>C0805C100J5GACTU</t>
-  </si>
-  <si>
     <t>CL21F105ZBFNNNE</t>
   </si>
   <si>
@@ -207,6 +201,15 @@
   </si>
   <si>
     <t>Mfg Part Number</t>
+  </si>
+  <si>
+    <t>581-08055C103J</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 0.01uF, 50V</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +250,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -443,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -497,6 +506,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,7 +884,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,10 +900,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -905,13 +920,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -925,10 +940,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -945,10 +960,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -964,14 +979,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
+      <c r="A5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -988,10 +1003,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1003,10 +1018,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1023,10 +1038,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1043,10 +1058,10 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1063,13 +1078,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1083,13 +1098,13 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -1103,13 +1118,13 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -1126,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -1143,13 +1158,13 @@
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -1166,7 +1181,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>34</v>

--- a/Electronics/DueShield_BOM.xlsx
+++ b/Electronics/DueShield_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOCull.STRYKERCORP\Documents\MaslowDue\Electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0E5CD7-6CF4-4A48-B5AA-50257DDFD39B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC5261-66BA-4585-917B-D9E9EFC75357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9255" xr2:uid="{0D1909E2-E7BC-4443-9712-339F892941C5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -125,9 +125,6 @@
     <t>SMA</t>
   </si>
   <si>
-    <t>24LC256T-I/SNCT</t>
-  </si>
-  <si>
     <t>EEPROM, 32K, SOIC</t>
   </si>
   <si>
@@ -210,6 +207,12 @@
   </si>
   <si>
     <t>CAPACITOR, 0.01uF, 50V</t>
+  </si>
+  <si>
+    <t>24LC256T-I/SM</t>
+  </si>
+  <si>
+    <t>updated 4/16/2019</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,10 +511,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,7 +890,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,10 +906,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -920,13 +926,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>4</v>
@@ -940,13 +946,13 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -960,13 +966,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -980,13 +986,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -1000,13 +1006,13 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1018,10 +1024,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1038,10 +1044,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1058,10 +1064,10 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1078,13 +1084,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -1098,13 +1104,13 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -1118,13 +1124,13 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -1137,14 +1143,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -1158,13 +1164,13 @@
     </row>
     <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -1178,13 +1184,13 @@
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>29</v>
@@ -1194,6 +1200,11 @@
       </c>
       <c r="F15" s="12">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
